--- a/manual/output_1156_chunk_2.xlsx
+++ b/manual/output_1156_chunk_2.xlsx
@@ -13238,7 +13238,7 @@
         <v>2</v>
       </c>
       <c r="D285">
-        <v>240.3930697114811</v>
+        <v>239.0112755604773</v>
       </c>
       <c r="E285" t="s">
         <v>2670</v>
@@ -13255,7 +13255,7 @@
         <v>2</v>
       </c>
       <c r="D286">
-        <v>240.2726816102264</v>
+        <v>238.8922671354171</v>
       </c>
       <c r="E286" t="s">
         <v>2670</v>
@@ -16060,7 +16060,7 @@
         <v>332</v>
       </c>
       <c r="D451">
-        <v>1111.280490013288</v>
+        <v>1111.140538766316</v>
       </c>
       <c r="E451" t="s">
         <v>2671</v>
@@ -16077,7 +16077,7 @@
         <v>1</v>
       </c>
       <c r="D452">
-        <v>4445.121960053151</v>
+        <v>4444.562155065266</v>
       </c>
       <c r="E452" t="s">
         <v>2670</v>
@@ -16434,7 +16434,7 @@
         <v>332</v>
       </c>
       <c r="D473">
-        <v>1224.508004161915</v>
+        <v>1246.216580123642</v>
       </c>
       <c r="E473" t="s">
         <v>2671</v>
@@ -16451,7 +16451,7 @@
         <v>1</v>
       </c>
       <c r="D474">
-        <v>4898.03201664766</v>
+        <v>4984.866320494566</v>
       </c>
       <c r="E474" t="s">
         <v>2670</v>
@@ -16502,7 +16502,7 @@
         <v>332</v>
       </c>
       <c r="D477">
-        <v>1225.389951295445</v>
+        <v>1247.185783988298</v>
       </c>
       <c r="E477" t="s">
         <v>2671</v>
@@ -16519,7 +16519,7 @@
         <v>1</v>
       </c>
       <c r="D478">
-        <v>4901.55980518178</v>
+        <v>4988.743135953193</v>
       </c>
       <c r="E478" t="s">
         <v>2670</v>
@@ -19800,7 +19800,7 @@
         <v>2</v>
       </c>
       <c r="D671">
-        <v>480</v>
+        <v>481.5</v>
       </c>
       <c r="E671" t="s">
         <v>2670</v>
@@ -22197,7 +22197,7 @@
         <v>2</v>
       </c>
       <c r="D812">
-        <v>145.75</v>
+        <v>146.25</v>
       </c>
       <c r="E812" t="s">
         <v>2671</v>
@@ -22214,7 +22214,7 @@
         <v>1</v>
       </c>
       <c r="D813">
-        <v>2332</v>
+        <v>2340</v>
       </c>
       <c r="E813" t="s">
         <v>2670</v>
@@ -22299,7 +22299,7 @@
         <v>2</v>
       </c>
       <c r="D818">
-        <v>149.5</v>
+        <v>149.25</v>
       </c>
       <c r="E818" t="s">
         <v>2671</v>
@@ -22316,7 +22316,7 @@
         <v>1</v>
       </c>
       <c r="D819">
-        <v>2392</v>
+        <v>2388</v>
       </c>
       <c r="E819" t="s">
         <v>2670</v>
@@ -22860,7 +22860,7 @@
         <v>23</v>
       </c>
       <c r="D851">
-        <v>145.75</v>
+        <v>148.25</v>
       </c>
       <c r="E851" t="s">
         <v>2671</v>
@@ -22877,7 +22877,7 @@
         <v>2</v>
       </c>
       <c r="D852">
-        <v>874.5</v>
+        <v>889.5</v>
       </c>
       <c r="E852" t="s">
         <v>2670</v>
@@ -22894,7 +22894,7 @@
         <v>1</v>
       </c>
       <c r="D853">
-        <v>3498</v>
+        <v>3558</v>
       </c>
       <c r="E853" t="s">
         <v>2670</v>
@@ -31224,7 +31224,7 @@
         <v>3</v>
       </c>
       <c r="D1343">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="E1343" t="s">
         <v>2671</v>
@@ -31241,7 +31241,7 @@
         <v>1</v>
       </c>
       <c r="D1344">
-        <v>1592</v>
+        <v>1600</v>
       </c>
       <c r="E1344" t="s">
         <v>2670</v>
@@ -31258,7 +31258,7 @@
         <v>7</v>
       </c>
       <c r="D1345">
-        <v>191.25</v>
+        <v>193</v>
       </c>
       <c r="E1345" t="s">
         <v>2671</v>
@@ -31275,7 +31275,7 @@
         <v>1</v>
       </c>
       <c r="D1346">
-        <v>1912.5</v>
+        <v>1930</v>
       </c>
       <c r="E1346" t="s">
         <v>2670</v>
@@ -31292,7 +31292,7 @@
         <v>7</v>
       </c>
       <c r="D1347">
-        <v>86.75</v>
+        <v>87.25</v>
       </c>
       <c r="E1347" t="s">
         <v>2671</v>
@@ -31309,7 +31309,7 @@
         <v>1</v>
       </c>
       <c r="D1348">
-        <v>1735</v>
+        <v>1745</v>
       </c>
       <c r="E1348" t="s">
         <v>2670</v>
@@ -31326,7 +31326,7 @@
         <v>7</v>
       </c>
       <c r="D1349">
-        <v>104.25</v>
+        <v>106.75</v>
       </c>
       <c r="E1349" t="s">
         <v>2671</v>
@@ -31343,7 +31343,7 @@
         <v>1</v>
       </c>
       <c r="D1350">
-        <v>1876.5</v>
+        <v>1921.5</v>
       </c>
       <c r="E1350" t="s">
         <v>2670</v>
@@ -31496,7 +31496,7 @@
         <v>7</v>
       </c>
       <c r="D1359">
-        <v>115</v>
+        <v>117.75</v>
       </c>
       <c r="E1359" t="s">
         <v>2671</v>
@@ -31513,7 +31513,7 @@
         <v>1</v>
       </c>
       <c r="D1360">
-        <v>1380</v>
+        <v>1413</v>
       </c>
       <c r="E1360" t="s">
         <v>2670</v>
@@ -31598,7 +31598,7 @@
         <v>7</v>
       </c>
       <c r="D1365">
-        <v>106.5</v>
+        <v>107</v>
       </c>
       <c r="E1365" t="s">
         <v>2671</v>
@@ -31615,7 +31615,7 @@
         <v>1</v>
       </c>
       <c r="D1366">
-        <v>2130</v>
+        <v>2140</v>
       </c>
       <c r="E1366" t="s">
         <v>2670</v>
@@ -32431,7 +32431,7 @@
         <v>2</v>
       </c>
       <c r="D1414">
-        <v>488.25</v>
+        <v>489.75</v>
       </c>
       <c r="E1414" t="s">
         <v>2670</v>
@@ -32890,7 +32890,7 @@
         <v>2</v>
       </c>
       <c r="D1441">
-        <v>282.25</v>
+        <v>282</v>
       </c>
       <c r="E1441" t="s">
         <v>2670</v>
@@ -33383,7 +33383,7 @@
         <v>332</v>
       </c>
       <c r="D1470">
-        <v>131.75</v>
+        <v>132.5</v>
       </c>
       <c r="E1470" t="s">
         <v>2671</v>
@@ -33400,7 +33400,7 @@
         <v>1</v>
       </c>
       <c r="D1471">
-        <v>1317.5</v>
+        <v>1325</v>
       </c>
       <c r="E1471" t="s">
         <v>2670</v>
@@ -34250,7 +34250,7 @@
         <v>1</v>
       </c>
       <c r="D1521">
-        <v>540</v>
+        <v>539.75</v>
       </c>
       <c r="E1521" t="s">
         <v>2670</v>
@@ -35168,7 +35168,7 @@
         <v>7</v>
       </c>
       <c r="D1575">
-        <v>229.5</v>
+        <v>229.25</v>
       </c>
       <c r="E1575" t="s">
         <v>2671</v>
@@ -35185,7 +35185,7 @@
         <v>1</v>
       </c>
       <c r="D1576">
-        <v>2754</v>
+        <v>2751</v>
       </c>
       <c r="E1576" t="s">
         <v>2670</v>
@@ -35202,7 +35202,7 @@
         <v>7</v>
       </c>
       <c r="D1577">
-        <v>236.25</v>
+        <v>239</v>
       </c>
       <c r="E1577" t="s">
         <v>2671</v>
@@ -35219,7 +35219,7 @@
         <v>1</v>
       </c>
       <c r="D1578">
-        <v>2835</v>
+        <v>2868</v>
       </c>
       <c r="E1578" t="s">
         <v>2670</v>
@@ -38245,7 +38245,7 @@
         <v>7</v>
       </c>
       <c r="D1756">
-        <v>111.0114057444462</v>
+        <v>112.0182299598336</v>
       </c>
       <c r="E1756" t="s">
         <v>2671</v>
@@ -38262,7 +38262,7 @@
         <v>1</v>
       </c>
       <c r="D1757">
-        <v>1887.193897655585</v>
+        <v>1904.309909317172</v>
       </c>
       <c r="E1757" t="s">
         <v>2670</v>
@@ -38279,7 +38279,7 @@
         <v>7</v>
       </c>
       <c r="D1758">
-        <v>111.0589518814498</v>
+        <v>112.3310667844548</v>
       </c>
       <c r="E1758" t="s">
         <v>2671</v>
@@ -38296,7 +38296,7 @@
         <v>1</v>
       </c>
       <c r="D1759">
-        <v>1888.002181984647</v>
+        <v>1909.628135335731</v>
       </c>
       <c r="E1759" t="s">
         <v>2670</v>
@@ -40047,7 +40047,7 @@
         <v>2</v>
       </c>
       <c r="D1862">
-        <v>263.5</v>
+        <v>263</v>
       </c>
       <c r="E1862" t="s">
         <v>2670</v>
@@ -47391,7 +47391,7 @@
         <v>2</v>
       </c>
       <c r="D2294">
-        <v>597.25</v>
+        <v>599</v>
       </c>
       <c r="E2294" t="s">
         <v>2670</v>
@@ -49040,7 +49040,7 @@
         <v>2</v>
       </c>
       <c r="D2391">
-        <v>59.78165331736508</v>
+        <v>59.86716351382368</v>
       </c>
       <c r="E2391" t="s">
         <v>2671</v>
@@ -49057,7 +49057,7 @@
         <v>1</v>
       </c>
       <c r="D2392">
-        <v>717.379839808381</v>
+        <v>718.4059621658841</v>
       </c>
       <c r="E2392" t="s">
         <v>2670</v>
@@ -49074,7 +49074,7 @@
         <v>2</v>
       </c>
       <c r="D2393">
-        <v>59.89676906470805</v>
+        <v>59.98260913209481</v>
       </c>
       <c r="E2393" t="s">
         <v>2671</v>
@@ -49091,7 +49091,7 @@
         <v>1</v>
       </c>
       <c r="D2394">
-        <v>718.7612287764965</v>
+        <v>719.7913095851377</v>
       </c>
       <c r="E2394" t="s">
         <v>2670</v>
@@ -52168,7 +52168,7 @@
         <v>2</v>
       </c>
       <c r="D2575">
-        <v>99.5</v>
+        <v>100.25</v>
       </c>
       <c r="E2575" t="s">
         <v>2670</v>
@@ -59172,7 +59172,7 @@
         <v>1</v>
       </c>
       <c r="D2987">
-        <v>286.9826942122343</v>
+        <v>287.1214954752893</v>
       </c>
       <c r="E2987" t="s">
         <v>2670</v>
@@ -60022,7 +60022,7 @@
         <v>1</v>
       </c>
       <c r="D3037">
-        <v>286.9341465026998</v>
+        <v>287.07290079747</v>
       </c>
       <c r="E3037" t="s">
         <v>2670</v>
@@ -60974,7 +60974,7 @@
         <v>332</v>
       </c>
       <c r="D3093">
-        <v>868.4712748867721</v>
+        <v>888.9052881841269</v>
       </c>
       <c r="E3093" t="s">
         <v>2671</v>
@@ -60991,7 +60991,7 @@
         <v>1</v>
       </c>
       <c r="D3094">
-        <v>3473.885099547088</v>
+        <v>3555.621152736508</v>
       </c>
       <c r="E3094" t="s">
         <v>2670</v>
@@ -63048,7 +63048,7 @@
         <v>3</v>
       </c>
       <c r="D3215">
-        <v>29.75</v>
+        <v>29.5</v>
       </c>
       <c r="E3215" t="s">
         <v>2671</v>
@@ -63065,7 +63065,7 @@
         <v>1</v>
       </c>
       <c r="D3216">
-        <v>1428</v>
+        <v>1416</v>
       </c>
       <c r="E3216" t="s">
         <v>2670</v>
@@ -70001,7 +70001,7 @@
         <v>2</v>
       </c>
       <c r="D3624">
-        <v>144</v>
+        <v>143.75</v>
       </c>
       <c r="E3624" t="s">
         <v>2670</v>
@@ -70494,7 +70494,7 @@
         <v>10</v>
       </c>
       <c r="D3653">
-        <v>37.01202055823272</v>
+        <v>36.63418169364404</v>
       </c>
       <c r="E3653" t="s">
         <v>2671</v>
@@ -70511,7 +70511,7 @@
         <v>1</v>
       </c>
       <c r="D3654">
-        <v>444.1442466987926</v>
+        <v>439.6101803237285</v>
       </c>
       <c r="E3654" t="s">
         <v>2670</v>
@@ -70528,7 +70528,7 @@
         <v>10</v>
       </c>
       <c r="D3655">
-        <v>24.25</v>
+        <v>24</v>
       </c>
       <c r="E3655" t="s">
         <v>2671</v>
@@ -70545,7 +70545,7 @@
         <v>1</v>
       </c>
       <c r="D3656">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E3656" t="s">
         <v>2670</v>
@@ -70562,7 +70562,7 @@
         <v>10</v>
       </c>
       <c r="D3657">
-        <v>36.98475949818928</v>
+        <v>36.60747418328806</v>
       </c>
       <c r="E3657" t="s">
         <v>2671</v>
@@ -70579,7 +70579,7 @@
         <v>1</v>
       </c>
       <c r="D3658">
-        <v>443.8171139782714</v>
+        <v>439.2896901994567</v>
       </c>
       <c r="E3658" t="s">
         <v>2670</v>
@@ -70596,7 +70596,7 @@
         <v>10</v>
       </c>
       <c r="D3659">
-        <v>26.25</v>
+        <v>26.5</v>
       </c>
       <c r="E3659" t="s">
         <v>2671</v>
@@ -70613,7 +70613,7 @@
         <v>1</v>
       </c>
       <c r="D3660">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E3660" t="s">
         <v>2670</v>
@@ -71718,7 +71718,7 @@
         <v>10</v>
       </c>
       <c r="D3725">
-        <v>16.25</v>
+        <v>16.5</v>
       </c>
       <c r="E3725" t="s">
         <v>2671</v>
@@ -71735,7 +71735,7 @@
         <v>1</v>
       </c>
       <c r="D3726">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E3726" t="s">
         <v>2670</v>
@@ -72041,7 +72041,7 @@
         <v>7</v>
       </c>
       <c r="D3744">
-        <v>162.75</v>
+        <v>165.5</v>
       </c>
       <c r="E3744" t="s">
         <v>2671</v>
@@ -72058,7 +72058,7 @@
         <v>1</v>
       </c>
       <c r="D3745">
-        <v>1953</v>
+        <v>1986</v>
       </c>
       <c r="E3745" t="s">
         <v>2670</v>
@@ -72177,7 +72177,7 @@
         <v>332</v>
       </c>
       <c r="D3752">
-        <v>865.0955235553193</v>
+        <v>885.6717355943807</v>
       </c>
       <c r="E3752" t="s">
         <v>2671</v>
@@ -72194,7 +72194,7 @@
         <v>1</v>
       </c>
       <c r="D3753">
-        <v>3460.382094221277</v>
+        <v>3542.686942377523</v>
       </c>
       <c r="E3753" t="s">
         <v>2670</v>
@@ -73843,7 +73843,7 @@
         <v>7</v>
       </c>
       <c r="D3850">
-        <v>129.5</v>
+        <v>130.75</v>
       </c>
       <c r="E3850" t="s">
         <v>2671</v>
@@ -73860,7 +73860,7 @@
         <v>1</v>
       </c>
       <c r="D3851">
-        <v>2590</v>
+        <v>2615</v>
       </c>
       <c r="E3851" t="s">
         <v>2670</v>

--- a/manual/output_1156_chunk_2.xlsx
+++ b/manual/output_1156_chunk_2.xlsx
@@ -15482,7 +15482,7 @@
         <v>80</v>
       </c>
       <c r="D417">
-        <v>135.75</v>
+        <v>136</v>
       </c>
       <c r="E417" t="s">
         <v>2671</v>
@@ -15499,7 +15499,7 @@
         <v>29</v>
       </c>
       <c r="D418">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E418" t="s">
         <v>2670</v>
@@ -23506,7 +23506,7 @@
         <v>5</v>
       </c>
       <c r="D889">
-        <v>631</v>
+        <v>630.75</v>
       </c>
       <c r="E889" t="s">
         <v>2670</v>
@@ -27552,7 +27552,7 @@
         <v>5</v>
       </c>
       <c r="D1127">
-        <v>525.5</v>
+        <v>525.25</v>
       </c>
       <c r="E1127" t="s">
         <v>2670</v>
@@ -27620,7 +27620,7 @@
         <v>12</v>
       </c>
       <c r="D1131">
-        <v>1037.25</v>
+        <v>1037</v>
       </c>
       <c r="E1131" t="s">
         <v>2670</v>
@@ -32686,7 +32686,7 @@
         <v>3</v>
       </c>
       <c r="D1429">
-        <v>97.25</v>
+        <v>98.25</v>
       </c>
       <c r="E1429" t="s">
         <v>2671</v>
@@ -32703,7 +32703,7 @@
         <v>1</v>
       </c>
       <c r="D1430">
-        <v>2334</v>
+        <v>2358</v>
       </c>
       <c r="E1430" t="s">
         <v>2670</v>
@@ -32788,7 +32788,7 @@
         <v>7</v>
       </c>
       <c r="D1435">
-        <v>213.5</v>
+        <v>213.75</v>
       </c>
       <c r="E1435" t="s">
         <v>2671</v>
@@ -32805,7 +32805,7 @@
         <v>1</v>
       </c>
       <c r="D1436">
-        <v>2562</v>
+        <v>2565</v>
       </c>
       <c r="E1436" t="s">
         <v>2670</v>
@@ -43753,7 +43753,7 @@
         <v>7</v>
       </c>
       <c r="D2080">
-        <v>16.25</v>
+        <v>16.75</v>
       </c>
       <c r="E2080" t="s">
         <v>2671</v>
@@ -43770,7 +43770,7 @@
         <v>15</v>
       </c>
       <c r="D2081">
-        <v>81.25</v>
+        <v>83.75</v>
       </c>
       <c r="E2081" t="s">
         <v>2670</v>
@@ -43787,7 +43787,7 @@
         <v>16</v>
       </c>
       <c r="D2082">
-        <v>162.5</v>
+        <v>167.5</v>
       </c>
       <c r="E2082" t="s">
         <v>2670</v>
@@ -43804,7 +43804,7 @@
         <v>1</v>
       </c>
       <c r="D2083">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="E2083" t="s">
         <v>2670</v>
@@ -44535,7 +44535,7 @@
         <v>7</v>
       </c>
       <c r="D2126">
-        <v>141.036227660471</v>
+        <v>141.0206872245968</v>
       </c>
       <c r="E2126" t="s">
         <v>2671</v>
@@ -44552,7 +44552,7 @@
         <v>1</v>
       </c>
       <c r="D2127">
-        <v>1410.36227660471</v>
+        <v>1410.206872245968</v>
       </c>
       <c r="E2127" t="s">
         <v>2670</v>
@@ -44603,7 +44603,7 @@
         <v>3</v>
       </c>
       <c r="D2130">
-        <v>59.5</v>
+        <v>60.5</v>
       </c>
       <c r="E2130" t="s">
         <v>2671</v>
@@ -44620,7 +44620,7 @@
         <v>1</v>
       </c>
       <c r="D2131">
-        <v>1071</v>
+        <v>1089</v>
       </c>
       <c r="E2131" t="s">
         <v>2670</v>
@@ -44637,7 +44637,7 @@
         <v>3</v>
       </c>
       <c r="D2132">
-        <v>58.5</v>
+        <v>59.5</v>
       </c>
       <c r="E2132" t="s">
         <v>2671</v>
@@ -44654,7 +44654,7 @@
         <v>1</v>
       </c>
       <c r="D2133">
-        <v>1053</v>
+        <v>1071</v>
       </c>
       <c r="E2133" t="s">
         <v>2670</v>
@@ -47527,7 +47527,7 @@
         <v>7</v>
       </c>
       <c r="D2302">
-        <v>17.75</v>
+        <v>18</v>
       </c>
       <c r="E2302" t="s">
         <v>2671</v>
@@ -47544,7 +47544,7 @@
         <v>15</v>
       </c>
       <c r="D2303">
-        <v>88.75</v>
+        <v>90</v>
       </c>
       <c r="E2303" t="s">
         <v>2670</v>
@@ -47561,7 +47561,7 @@
         <v>16</v>
       </c>
       <c r="D2304">
-        <v>177.5</v>
+        <v>180</v>
       </c>
       <c r="E2304" t="s">
         <v>2670</v>
@@ -47578,7 +47578,7 @@
         <v>1</v>
       </c>
       <c r="D2305">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="E2305" t="s">
         <v>2670</v>
@@ -48207,7 +48207,7 @@
         <v>10</v>
       </c>
       <c r="D2342">
-        <v>38.5</v>
+        <v>38.75</v>
       </c>
       <c r="E2342" t="s">
         <v>2671</v>
@@ -48224,7 +48224,7 @@
         <v>1</v>
       </c>
       <c r="D2343">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="E2343" t="s">
         <v>2670</v>
@@ -49669,7 +49669,7 @@
         <v>1</v>
       </c>
       <c r="D2428">
-        <v>179.2473239548245</v>
+        <v>179.2626816084734</v>
       </c>
       <c r="E2428" t="s">
         <v>2670</v>
@@ -50944,7 +50944,7 @@
         <v>12</v>
       </c>
       <c r="D2503">
-        <v>867.5</v>
+        <v>868.5</v>
       </c>
       <c r="E2503" t="s">
         <v>2670</v>
@@ -56078,7 +56078,7 @@
         <v>25</v>
       </c>
       <c r="D2805">
-        <v>254.25</v>
+        <v>258.5</v>
       </c>
       <c r="E2805" t="s">
         <v>2671</v>
@@ -56095,7 +56095,7 @@
         <v>29</v>
       </c>
       <c r="D2806">
-        <v>762.75</v>
+        <v>775.5</v>
       </c>
       <c r="E2806" t="s">
         <v>2670</v>
@@ -56452,7 +56452,7 @@
         <v>1</v>
       </c>
       <c r="D2827">
-        <v>165.5571824913988</v>
+        <v>165.5225589854126</v>
       </c>
       <c r="E2827" t="s">
         <v>2670</v>
@@ -59308,7 +59308,7 @@
         <v>1</v>
       </c>
       <c r="D2995">
-        <v>491.25</v>
+        <v>491.5</v>
       </c>
       <c r="E2995" t="s">
         <v>2670</v>
@@ -60617,7 +60617,7 @@
         <v>25</v>
       </c>
       <c r="D3072">
-        <v>437.25</v>
+        <v>438.5</v>
       </c>
       <c r="E3072" t="s">
         <v>2671</v>
@@ -60634,7 +60634,7 @@
         <v>1</v>
       </c>
       <c r="D3073">
-        <v>874.5</v>
+        <v>877</v>
       </c>
       <c r="E3073" t="s">
         <v>2670</v>
@@ -61280,7 +61280,7 @@
         <v>1</v>
       </c>
       <c r="D3111">
-        <v>463.75</v>
+        <v>463.25</v>
       </c>
       <c r="E3111" t="s">
         <v>2670</v>
@@ -62130,7 +62130,7 @@
         <v>332</v>
       </c>
       <c r="D3161">
-        <v>20.25</v>
+        <v>28.5</v>
       </c>
       <c r="E3161" t="s">
         <v>2671</v>
@@ -62147,7 +62147,7 @@
         <v>1</v>
       </c>
       <c r="D3162">
-        <v>810</v>
+        <v>1140</v>
       </c>
       <c r="E3162" t="s">
         <v>2670</v>
@@ -64136,7 +64136,7 @@
         <v>25</v>
       </c>
       <c r="D3279">
-        <v>398.75</v>
+        <v>399</v>
       </c>
       <c r="E3279" t="s">
         <v>2671</v>
@@ -64153,7 +64153,7 @@
         <v>29</v>
       </c>
       <c r="D3280">
-        <v>797.5</v>
+        <v>798</v>
       </c>
       <c r="E3280" t="s">
         <v>2670</v>
@@ -66618,7 +66618,7 @@
         <v>23</v>
       </c>
       <c r="D3425">
-        <v>50.4574044202189</v>
+        <v>50.45740442021891</v>
       </c>
       <c r="E3425" t="s">
         <v>2671</v>
@@ -67672,7 +67672,7 @@
         <v>1</v>
       </c>
       <c r="D3487">
-        <v>619.5</v>
+        <v>613</v>
       </c>
       <c r="E3487" t="s">
         <v>2670</v>
@@ -71531,7 +71531,7 @@
         <v>3</v>
       </c>
       <c r="D3714">
-        <v>47.62011394502907</v>
+        <v>47.62011438492826</v>
       </c>
       <c r="E3714" t="s">
         <v>2671</v>
@@ -71548,7 +71548,7 @@
         <v>1</v>
       </c>
       <c r="D3715">
-        <v>571.4413673403488</v>
+        <v>571.4413726191392</v>
       </c>
       <c r="E3715" t="s">
         <v>2670</v>
@@ -73333,7 +73333,7 @@
         <v>3</v>
       </c>
       <c r="D3820">
-        <v>214.4658426272786</v>
+        <v>214.6714164597194</v>
       </c>
       <c r="E3820" t="s">
         <v>2671</v>
@@ -73350,7 +73350,7 @@
         <v>1</v>
       </c>
       <c r="D3821">
-        <v>2573.590111527344</v>
+        <v>2576.056997516633</v>
       </c>
       <c r="E3821" t="s">
         <v>2670</v>
@@ -74540,7 +74540,7 @@
         <v>3</v>
       </c>
       <c r="D3891">
-        <v>95.95698616372954</v>
+        <v>95.95040724558658</v>
       </c>
       <c r="E3891" t="s">
         <v>2671</v>
@@ -74557,7 +74557,7 @@
         <v>2</v>
       </c>
       <c r="D3892">
-        <v>287.8709584911886</v>
+        <v>287.8512217367597</v>
       </c>
       <c r="E3892" t="s">
         <v>2670</v>
